--- a/Data_preparation/datasets/final_data/Sprout_Social_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Sprout_Social_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,57 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -703,22 +652,22 @@
         <v>43100</v>
       </c>
       <c r="D2">
-        <v>21.06097328157131</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="E2">
-        <v>21.5913028717041</v>
+        <v>16.04999923706055</v>
       </c>
       <c r="F2">
-        <v>23.51893322585045</v>
+        <v>18.75</v>
       </c>
       <c r="G2">
-        <v>20.76122322733137</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="H2">
-        <v>1299391231</v>
+        <v>52645842</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-2007000</v>
@@ -747,22 +696,22 @@
         <v>43465</v>
       </c>
       <c r="D3">
-        <v>178.7038649689565</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="E3">
-        <v>142.8035278320312</v>
+        <v>16.04999923706055</v>
       </c>
       <c r="F3">
-        <v>181.4961066283612</v>
+        <v>18.75</v>
       </c>
       <c r="G3">
-        <v>142.8035278320312</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="H3">
-        <v>193969420</v>
+        <v>52645842</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>-26190000</v>
@@ -788,22 +737,22 @@
         <v>43555</v>
       </c>
       <c r="D4">
-        <v>1096.205709613841</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="E4">
-        <v>1205.027587890625</v>
+        <v>16.04999923706055</v>
       </c>
       <c r="F4">
-        <v>1294.880514908153</v>
+        <v>18.75</v>
       </c>
       <c r="G4">
-        <v>1035.305392413072</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>52645842</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>23379000</v>
@@ -865,22 +814,22 @@
         <v>43646</v>
       </c>
       <c r="D5">
-        <v>40544.09822043826</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="E5">
-        <v>38831.5703125</v>
+        <v>16.04999923706055</v>
       </c>
       <c r="F5">
-        <v>40715.35101123209</v>
+        <v>18.75</v>
       </c>
       <c r="G5">
-        <v>37975.30635853087</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="H5">
-        <v>5876745450</v>
+        <v>52645842</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>24763000</v>
@@ -942,22 +891,22 @@
         <v>43738</v>
       </c>
       <c r="D6">
-        <v>60.76406463044493</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="E6">
-        <v>59.60836791992188</v>
+        <v>16.04999923706055</v>
       </c>
       <c r="F6">
-        <v>61.14327406172586</v>
+        <v>18.75</v>
       </c>
       <c r="G6">
-        <v>56.1412984537168</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="H6">
-        <v>229140423</v>
+        <v>52645842</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>26421000</v>
@@ -1025,22 +974,22 @@
         <v>43830</v>
       </c>
       <c r="D7">
-        <v>222.8461507933775</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="E7">
-        <v>219.044937133789</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="F7">
-        <v>252.7807083626373</v>
+        <v>21.39999961853028</v>
       </c>
       <c r="G7">
-        <v>203.3649307879864</v>
+        <v>16.14999961853027</v>
       </c>
       <c r="H7">
-        <v>80995217</v>
+        <v>52645842</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>768544604</v>
@@ -1138,22 +1087,22 @@
         <v>43921</v>
       </c>
       <c r="D8">
-        <v>12.41129859768217</v>
+        <v>15.18000030517578</v>
       </c>
       <c r="E8">
-        <v>16.23237037658691</v>
+        <v>16.81999969482422</v>
       </c>
       <c r="F8">
-        <v>17.16704825563687</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="G8">
-        <v>12.05887897968325</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="H8">
-        <v>1299391231</v>
+        <v>52645842</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>799403554</v>
@@ -1254,22 +1203,22 @@
         <v>44012</v>
       </c>
       <c r="D9">
-        <v>970.3393129824782</v>
+        <v>26.98999977111816</v>
       </c>
       <c r="E9">
-        <v>1088.628295898438</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="F9">
-        <v>1118.200541627427</v>
+        <v>31.38999938964844</v>
       </c>
       <c r="G9">
-        <v>950.0083940437976</v>
+        <v>24.54999923706055</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>52645842</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1359659952</v>
@@ -1370,22 +1319,22 @@
         <v>44104</v>
       </c>
       <c r="D10">
-        <v>12.7733873356874</v>
+        <v>39.54000091552734</v>
       </c>
       <c r="E10">
-        <v>15.52035236358643</v>
+        <v>43.70000076293945</v>
       </c>
       <c r="F10">
-        <v>17.30587870681586</v>
+        <v>51.56999969482422</v>
       </c>
       <c r="G10">
-        <v>12.68182262753309</v>
+        <v>37.13999938964844</v>
       </c>
       <c r="H10">
-        <v>4500000193</v>
+        <v>52645842</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1962351968</v>
@@ -1486,22 +1435,22 @@
         <v>44196</v>
       </c>
       <c r="D11">
-        <v>32.50755730601569</v>
+        <v>45.88999938964844</v>
       </c>
       <c r="E11">
-        <v>31.25653076171875</v>
+        <v>66</v>
       </c>
       <c r="F11">
-        <v>32.99459606093095</v>
+        <v>70.95999908447266</v>
       </c>
       <c r="G11">
-        <v>30.77904021483708</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>219937482</v>
+        <v>52645842</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2403753511</v>
@@ -1602,22 +1551,22 @@
         <v>44286</v>
       </c>
       <c r="D12">
-        <v>2516.34996159507</v>
+        <v>59.18000030517578</v>
       </c>
       <c r="E12">
-        <v>2790.17041015625</v>
+        <v>66.29000091552734</v>
       </c>
       <c r="F12">
-        <v>2807.159270103477</v>
+        <v>71.93000030517578</v>
       </c>
       <c r="G12">
-        <v>2503.838146397838</v>
+        <v>55.96500015258789</v>
       </c>
       <c r="H12">
-        <v>913159452</v>
+        <v>52645842</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>3084113683</v>
@@ -1718,22 +1667,22 @@
         <v>44377</v>
       </c>
       <c r="D13">
-        <v>40.06459571156605</v>
+        <v>88.87000274658203</v>
       </c>
       <c r="E13">
-        <v>40.04537963867188</v>
+        <v>88.83999633789062</v>
       </c>
       <c r="F13">
-        <v>40.5353766696543</v>
+        <v>95.75</v>
       </c>
       <c r="G13">
-        <v>36.25990124070713</v>
+        <v>79.02999877929688</v>
       </c>
       <c r="H13">
-        <v>219937482</v>
+        <v>52645842</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>4792211573</v>
@@ -1834,22 +1783,22 @@
         <v>44469</v>
       </c>
       <c r="D14">
-        <v>51.72000122070312</v>
+        <v>122.4199981689453</v>
       </c>
       <c r="E14">
-        <v>45.22999954223633</v>
+        <v>127.6800003051758</v>
       </c>
       <c r="F14">
-        <v>53.2400016784668</v>
+        <v>135.3300018310547</v>
       </c>
       <c r="G14">
-        <v>43.54000091552734</v>
+        <v>109.0189971923828</v>
       </c>
       <c r="H14">
-        <v>134598631</v>
+        <v>52645842</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>6566876038</v>
@@ -1950,22 +1899,22 @@
         <v>44561</v>
       </c>
       <c r="D15">
-        <v>98.06110899770088</v>
+        <v>90.91999816894533</v>
       </c>
       <c r="E15">
-        <v>84.43734741210938</v>
+        <v>68.84999847412109</v>
       </c>
       <c r="F15">
-        <v>98.06110899770088</v>
+        <v>91.13500213623048</v>
       </c>
       <c r="G15">
-        <v>80.56356001156674</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="H15">
-        <v>229140423</v>
+        <v>52645842</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>4897775391</v>
@@ -2066,22 +2015,22 @@
         <v>44651</v>
       </c>
       <c r="D16">
-        <v>564.8420934999623</v>
+        <v>79.91999816894531</v>
       </c>
       <c r="E16">
-        <v>567.5840454101562</v>
+        <v>61.27999877929688</v>
       </c>
       <c r="F16">
-        <v>568.4980293802209</v>
+        <v>85.98999786376953</v>
       </c>
       <c r="G16">
-        <v>487.1534560444658</v>
+        <v>58.75500106811523</v>
       </c>
       <c r="H16">
-        <v>275900103</v>
+        <v>52645842</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>4343766531</v>
@@ -2182,22 +2131,22 @@
         <v>44742</v>
       </c>
       <c r="D17">
-        <v>990.9535599144536</v>
+        <v>57.88999938964844</v>
       </c>
       <c r="E17">
-        <v>932.830322265625</v>
+        <v>52.09999847412109</v>
       </c>
       <c r="F17">
-        <v>1065.275076908038</v>
+        <v>66.34999847412109</v>
       </c>
       <c r="G17">
-        <v>932.830322265625</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="H17">
-        <v>1333460157</v>
+        <v>52645842</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>3161323890</v>
@@ -2298,22 +2247,22 @@
         <v>44834</v>
       </c>
       <c r="D18">
-        <v>3829.951036061672</v>
+        <v>60.68000030517578</v>
       </c>
       <c r="E18">
-        <v>3718.19677734375</v>
+        <v>60.33000183105469</v>
       </c>
       <c r="F18">
-        <v>4026.941593801738</v>
+        <v>69.44999694824219</v>
       </c>
       <c r="G18">
-        <v>3570.453859038701</v>
+        <v>47.52000045776367</v>
       </c>
       <c r="H18">
-        <v>933160187</v>
+        <v>52645842</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>3316819589</v>
@@ -2414,22 +2363,22 @@
         <v>44926</v>
       </c>
       <c r="D19">
-        <v>17.67499923706055</v>
+        <v>57.79000091552734</v>
       </c>
       <c r="E19">
-        <v>19.1200008392334</v>
+        <v>63.97000122070312</v>
       </c>
       <c r="F19">
-        <v>19.76000022888184</v>
+        <v>66.5</v>
       </c>
       <c r="G19">
-        <v>17.08499908447266</v>
+        <v>51.18000030517578</v>
       </c>
       <c r="H19">
-        <v>795535712</v>
+        <v>52645842</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3096171039</v>
@@ -2530,22 +2479,22 @@
         <v>45016</v>
       </c>
       <c r="D20">
-        <v>4646.163088703966</v>
+        <v>59.54999923706055</v>
       </c>
       <c r="E20">
-        <v>4397.0390625</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="F20">
-        <v>4647.12125803552</v>
+        <v>59.75</v>
       </c>
       <c r="G20">
-        <v>4224.568582820331</v>
+        <v>48.29999923706055</v>
       </c>
       <c r="H20">
-        <v>933160187</v>
+        <v>52645842</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>3352188014</v>
@@ -2646,22 +2595,22 @@
         <v>45107</v>
       </c>
       <c r="D21">
-        <v>299.8867087280755</v>
+        <v>46.15999984741211</v>
       </c>
       <c r="E21">
-        <v>279.6763610839844</v>
+        <v>57.13999938964844</v>
       </c>
       <c r="F21">
-        <v>311.3327623979251</v>
+        <v>58.66999816894531</v>
       </c>
       <c r="G21">
-        <v>274.7053735580706</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="H21">
-        <v>193969420</v>
+        <v>52645842</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>2557159771</v>
@@ -2762,22 +2711,22 @@
         <v>45199</v>
       </c>
       <c r="D22">
-        <v>1366.269412157012</v>
+        <v>49.70000076293945</v>
       </c>
       <c r="E22">
-        <v>1400.426147460938</v>
+        <v>43.27999877929688</v>
       </c>
       <c r="F22">
-        <v>1722.475366040805</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="G22">
-        <v>1356.510344927319</v>
+        <v>41.66999816894531</v>
       </c>
       <c r="H22">
-        <v>134011000</v>
+        <v>52645842</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>2780029877</v>
@@ -2878,22 +2827,22 @@
         <v>45291</v>
       </c>
       <c r="D23">
-        <v>124.5980016318655</v>
+        <v>62.11000061035156</v>
       </c>
       <c r="E23">
-        <v>132.1493988037109</v>
+        <v>61.33000183105469</v>
       </c>
       <c r="F23">
-        <v>136.1187273141222</v>
+        <v>66.41500091552734</v>
       </c>
       <c r="G23">
-        <v>122.5649354352075</v>
+        <v>55.06000137329102</v>
       </c>
       <c r="H23">
-        <v>229140423</v>
+        <v>52645842</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>3440272282</v>
@@ -2994,22 +2943,22 @@
         <v>45382</v>
       </c>
       <c r="D24">
-        <v>4156.728619089413</v>
+        <v>59.61000061035156</v>
       </c>
       <c r="E24">
-        <v>4553.76318359375</v>
+        <v>50.45000076293945</v>
       </c>
       <c r="F24">
-        <v>5096.40944657156</v>
+        <v>59.84999847412109</v>
       </c>
       <c r="G24">
-        <v>3750.957352676668</v>
+        <v>50.11000061035156</v>
       </c>
       <c r="H24">
-        <v>175134528</v>
+        <v>52645842</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>3358698606</v>
@@ -3110,22 +3059,22 @@
         <v>45473</v>
       </c>
       <c r="D25">
-        <v>2890.935410112718</v>
+        <v>35.65000152587891</v>
       </c>
       <c r="E25">
-        <v>2691.009033203125</v>
+        <v>39.06999969482422</v>
       </c>
       <c r="F25">
-        <v>3014.889763796666</v>
+        <v>39.74499893188477</v>
       </c>
       <c r="G25">
-        <v>2519.072349060875</v>
+        <v>33.59999847412109</v>
       </c>
       <c r="H25">
-        <v>104878138</v>
+        <v>52645842</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>2017276197</v>
@@ -3226,22 +3175,22 @@
         <v>45565</v>
       </c>
       <c r="D26">
-        <v>31.23959479848472</v>
+        <v>29.03000068664551</v>
       </c>
       <c r="E26">
-        <v>28.76222801208496</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="F26">
-        <v>31.50219696309808</v>
+        <v>29.86000061035156</v>
       </c>
       <c r="G26">
-        <v>28.63340577082776</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="H26">
-        <v>1299391231</v>
+        <v>52645842</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1659325106</v>
@@ -3342,22 +3291,22 @@
         <v>45657</v>
       </c>
       <c r="D27">
-        <v>2476.994723535176</v>
+        <v>31.17000007629395</v>
       </c>
       <c r="E27">
-        <v>2384.00341796875</v>
+        <v>32.66999816894531</v>
       </c>
       <c r="F27">
-        <v>2758.415779854624</v>
+        <v>35.18000030517578</v>
       </c>
       <c r="G27">
-        <v>2325.761495008725</v>
+        <v>29.47900009155273</v>
       </c>
       <c r="H27">
-        <v>175134528</v>
+        <v>52645842</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>1762726730</v>
@@ -3458,22 +3407,22 @@
         <v>45747</v>
       </c>
       <c r="D28">
-        <v>3590.70430246099</v>
+        <v>21.93000030517578</v>
       </c>
       <c r="E28">
-        <v>3714.694091796875</v>
+        <v>20.90999984741211</v>
       </c>
       <c r="F28">
-        <v>3714.694091796875</v>
+        <v>22.78000068664551</v>
       </c>
       <c r="G28">
-        <v>3048.748932944461</v>
+        <v>18.52000045776367</v>
       </c>
       <c r="H28">
-        <v>913159452</v>
+        <v>52645842</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>1270113439</v>
@@ -3574,22 +3523,22 @@
         <v>45838</v>
       </c>
       <c r="D29">
-        <v>2937</v>
+        <v>20.81999969482422</v>
       </c>
       <c r="E29">
-        <v>3025</v>
+        <v>17.14999961853027</v>
       </c>
       <c r="F29">
-        <v>3125</v>
+        <v>21.6299991607666</v>
       </c>
       <c r="G29">
-        <v>2890</v>
+        <v>17.1200008392334</v>
       </c>
       <c r="H29">
-        <v>52985470</v>
+        <v>52645842</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>1216452047</v>
